--- a/biology/Origine et évolution du vivant/Olyreae/Olyreae.xlsx
+++ b/biology/Origine et évolution du vivant/Olyreae/Olyreae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Olyreae est une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire des régions tropicales.
 Contrairement aux autres tribus de la sous-famille des Bambusoideae (bambous), c'est une tribu qui regroupe essentiellement des plantes herbacées, sans tiges ligneuses.
-Les Olyreae poussent en sous-bois dans les forêts tropicales humides. Elles sont principalement distribuées dans les Néotropiques, notamment dans le bassin de l'Amazone, une seule espèce, Olyra latifolia, provenant d'Afrique, et une autre, Buergersiochloa bambusoides, de Nouvelle-Guinée[1].
+Les Olyreae poussent en sous-bois dans les forêts tropicales humides. Elles sont principalement distribuées dans les Néotropiques, notamment dans le bassin de l'Amazone, une seule espèce, Olyra latifolia, provenant d'Afrique, et une autre, Buergersiochloa bambusoides, de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Olyreae sont le groupe frère des Bambuseae (bambous ligneux)[1], comme l'illustre le cladogramme suivant :.
-La tribu compte 21 genres regroupés en trois sous-tribus[2] : Buergersiochloinae (S.T.Blake) L.G.Clark &amp; Judz., Olyrinae Kromb. et Parianinae Hack. 
-Liste des genres et espèces</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Olyreae sont le groupe frère des Bambuseae (bambous ligneux), comme l'illustre le cladogramme suivant :.
+La tribu compte 21 genres regroupés en trois sous-tribus : Buergersiochloinae (S.T.Blake) L.G.Clark &amp; Judz., Olyrinae Kromb. et Parianinae Hack. 
+</t>
         </is>
       </c>
     </row>
